--- a/data/trans_orig/P47A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>25501</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16347</v>
+        <v>15643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39993</v>
+        <v>38323</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05382583192479073</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0345045105484074</v>
+        <v>0.0330170264248854</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08441434671765366</v>
+        <v>0.08088863494170147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>16671</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9972</v>
+        <v>10222</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25992</v>
+        <v>26206</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05436088980869643</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03251537005949832</v>
+        <v>0.03333006249992624</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08475282787658112</v>
+        <v>0.08544907137886272</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -786,19 +786,19 @@
         <v>42173</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30203</v>
+        <v>29463</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56881</v>
+        <v>56992</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05403608283536783</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03869974364376549</v>
+        <v>0.03775076553000869</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07288138971399095</v>
+        <v>0.07302447242457476</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>284899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>263098</v>
+        <v>259248</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>306499</v>
+        <v>306198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6013367152491097</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.555321105920604</v>
+        <v>0.547196333681552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6469279080708191</v>
+        <v>0.6462932766509726</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -836,19 +836,19 @@
         <v>203966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>186258</v>
+        <v>186995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>220347</v>
+        <v>219413</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6650766873434918</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6073361602401038</v>
+        <v>0.6097394955249223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7184905023798739</v>
+        <v>0.7154468209054257</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>474</v>
@@ -857,19 +857,19 @@
         <v>488865</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>459569</v>
+        <v>459038</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>516586</v>
+        <v>513526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6263833271692595</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5888465488942906</v>
+        <v>0.5881652546189515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6619019857143997</v>
+        <v>0.6579814545682366</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>133596</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114723</v>
+        <v>112636</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>153672</v>
+        <v>152578</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2819810759729507</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.24214538660928</v>
+        <v>0.2377404085255288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3243562608818645</v>
+        <v>0.322047754279862</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>66</v>
@@ -907,19 +907,19 @@
         <v>67255</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53249</v>
+        <v>54542</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82804</v>
+        <v>82900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2193002457570872</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1736301220739963</v>
+        <v>0.1778450343116442</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.269999868465211</v>
+        <v>0.2703158145121431</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>195</v>
@@ -928,19 +928,19 @@
         <v>200851</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>176622</v>
+        <v>177997</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>226211</v>
+        <v>229274</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2573506536858989</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2263055164471012</v>
+        <v>0.2280681227486619</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2898438646566401</v>
+        <v>0.293768292373723</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>29780</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20322</v>
+        <v>20940</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42304</v>
+        <v>42737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06285637685314888</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04289357457420462</v>
+        <v>0.04419714084161121</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08929077577844052</v>
+        <v>0.09020535735883353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -978,19 +978,19 @@
         <v>18788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11628</v>
+        <v>11928</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28213</v>
+        <v>28225</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06126217709072457</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03791714927088527</v>
+        <v>0.03889390556450924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09199500142524225</v>
+        <v>0.09203243192118354</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -999,19 +999,19 @@
         <v>48568</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37204</v>
+        <v>36348</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63526</v>
+        <v>62872</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06222993630947384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04766969336432184</v>
+        <v>0.04657217889455383</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08139587764381466</v>
+        <v>0.08055755680700609</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>17602</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10624</v>
+        <v>10809</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28050</v>
+        <v>28501</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04807951808379182</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02901941023023283</v>
+        <v>0.02952425271741011</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07661955483608027</v>
+        <v>0.07784966034443093</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1124,19 +1124,19 @@
         <v>13952</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7909</v>
+        <v>7955</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22106</v>
+        <v>21666</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03762661263979565</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0213289494557268</v>
+        <v>0.02145493988058914</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05961834790837879</v>
+        <v>0.0584306436943224</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>30</v>
@@ -1145,19 +1145,19 @@
         <v>31554</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>21950</v>
+        <v>20949</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>45209</v>
+        <v>44111</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04281979463093712</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02978684233504371</v>
+        <v>0.02842870044325746</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06135116180483388</v>
+        <v>0.05986048953339908</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>231746</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>212519</v>
+        <v>211556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>250984</v>
+        <v>251650</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6330104476628154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5804917483683859</v>
+        <v>0.5778617312374746</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6855583651044271</v>
+        <v>0.6873795407239067</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -1195,19 +1195,19 @@
         <v>221728</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>203109</v>
+        <v>201534</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>241154</v>
+        <v>240918</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5979851274911546</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5477707750055925</v>
+        <v>0.5435218670604134</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6503753524378303</v>
+        <v>0.6497377497875044</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>435</v>
@@ -1216,19 +1216,19 @@
         <v>453473</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>423984</v>
+        <v>425794</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>480515</v>
+        <v>480371</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6153863048885744</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5753673275663495</v>
+        <v>0.5778244686978066</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6520837285161505</v>
+        <v>0.6518880290115333</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>89479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>73861</v>
+        <v>72139</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>107005</v>
+        <v>106786</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2444108164396903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2017496495360061</v>
+        <v>0.1970460205739389</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2922827647592474</v>
+        <v>0.2916841556059973</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -1266,19 +1266,19 @@
         <v>107229</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88077</v>
+        <v>88193</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125410</v>
+        <v>123406</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2891900483759061</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2375363898278962</v>
+        <v>0.2378493943330342</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3382211156899057</v>
+        <v>0.3328164076183914</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>192</v>
@@ -1287,19 +1287,19 @@
         <v>196708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>173867</v>
+        <v>172328</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>222747</v>
+        <v>220522</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2669429609881721</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2359460081908379</v>
+        <v>0.2338577845671012</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.302279488940361</v>
+        <v>0.2992594811960902</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>27274</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18661</v>
+        <v>18416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39289</v>
+        <v>37783</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07449921781370249</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05097113340431522</v>
+        <v>0.05030293256358265</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1073164848341007</v>
+        <v>0.1032036953384765</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -1337,19 +1337,19 @@
         <v>27883</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18148</v>
+        <v>18813</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39660</v>
+        <v>39730</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07519821149314368</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04894387135655269</v>
+        <v>0.05073861054700649</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1069595309889988</v>
+        <v>0.1071501653714436</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -1358,19 +1358,19 @@
         <v>55157</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>41736</v>
+        <v>42793</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72325</v>
+        <v>73086</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07485093949231633</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05663855627268576</v>
+        <v>0.05807175654887703</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09814916395236466</v>
+        <v>0.09918111844670087</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>22961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14838</v>
+        <v>15218</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34195</v>
+        <v>34196</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04241057025239322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02740787528206975</v>
+        <v>0.02810902595351091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06316150942131708</v>
+        <v>0.06316380311573543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1483,19 +1483,19 @@
         <v>10386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4876</v>
+        <v>5023</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20108</v>
+        <v>19331</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06224735161301623</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02922453516458795</v>
+        <v>0.03010630886309742</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1205153587115372</v>
+        <v>0.1158614483558345</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -1504,19 +1504,19 @@
         <v>33347</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22574</v>
+        <v>23706</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46960</v>
+        <v>47625</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04708378022968425</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03187375531730171</v>
+        <v>0.03347154107510107</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06630542632456919</v>
+        <v>0.06724328158126155</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>308982</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>286404</v>
+        <v>284458</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>332526</v>
+        <v>331976</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5707160830506</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5290124663770093</v>
+        <v>0.5254183639586958</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6142041028343084</v>
+        <v>0.6131879045263369</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>88</v>
@@ -1554,19 +1554,19 @@
         <v>89721</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>76090</v>
+        <v>77516</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>101461</v>
+        <v>103767</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.53773219128726</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4560397356636828</v>
+        <v>0.4645862003272428</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6080985893014815</v>
+        <v>0.6219187015489045</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>390</v>
@@ -1575,19 +1575,19 @@
         <v>398702</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>372430</v>
+        <v>370703</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>428065</v>
+        <v>425224</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.5629456363598729</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5258511031670627</v>
+        <v>0.5234117518648556</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6044034326302048</v>
+        <v>0.6003930262473709</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>158238</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>136407</v>
+        <v>137101</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>178256</v>
+        <v>179421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2922787113022624</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2519559741539191</v>
+        <v>0.2532377931060003</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3292543135242718</v>
+        <v>0.3314059389409137</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1625,19 +1625,19 @@
         <v>47013</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36446</v>
+        <v>36520</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59408</v>
+        <v>59557</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2817660973451875</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2184377623721024</v>
+        <v>0.218877137450484</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3560567225512009</v>
+        <v>0.3569488304494401</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>200</v>
@@ -1646,19 +1646,19 @@
         <v>205250</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>181183</v>
+        <v>183735</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>230128</v>
+        <v>231863</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2898021173660539</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2558203635841468</v>
+        <v>0.2594242690627995</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3249274038561181</v>
+        <v>0.3273774066908953</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>51213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39323</v>
+        <v>39388</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67006</v>
+        <v>65987</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09459463539474446</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07263384987888113</v>
+        <v>0.07275388880168372</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.123766330644547</v>
+        <v>0.1218832108331944</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -1696,19 +1696,19 @@
         <v>19731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12566</v>
+        <v>12808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29205</v>
+        <v>29107</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1182543597545362</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07531427438094893</v>
+        <v>0.07676503720614282</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1750401538338623</v>
+        <v>0.1744515640285352</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -1717,19 +1717,19 @@
         <v>70944</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>57383</v>
+        <v>56565</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>90432</v>
+        <v>87230</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1001684660443888</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08102109643458727</v>
+        <v>0.07986674645006341</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1276849573007184</v>
+        <v>0.1231632764196342</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>42001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31019</v>
+        <v>30571</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56869</v>
+        <v>56258</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03398922611235468</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02510214183908799</v>
+        <v>0.02473898067798159</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04602046119115738</v>
+        <v>0.04552660333823347</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1842,19 +1842,19 @@
         <v>23736</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15404</v>
+        <v>15054</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35559</v>
+        <v>34880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03331573361876008</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02162089268336162</v>
+        <v>0.02113077765709957</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04991099158826831</v>
+        <v>0.04895891437420458</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -1863,19 +1863,19 @@
         <v>65737</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51895</v>
+        <v>51242</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83893</v>
+        <v>84191</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03374293086666601</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02663775051285411</v>
+        <v>0.02630242077063252</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04306255139980161</v>
+        <v>0.04321542914745783</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>720202</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>683259</v>
+        <v>682907</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>756618</v>
+        <v>753758</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5828165763440201</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5529207985798478</v>
+        <v>0.5526365985801173</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6122859656299098</v>
+        <v>0.6099717284985348</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>388</v>
@@ -1913,19 +1913,19 @@
         <v>402047</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>374817</v>
+        <v>376194</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>428864</v>
+        <v>428591</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5643221249778454</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5261005535184323</v>
+        <v>0.5280341841157051</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6019628636673938</v>
+        <v>0.6015799725511104</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1093</v>
@@ -1934,19 +1934,19 @@
         <v>1122249</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1079635</v>
+        <v>1079354</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1168104</v>
+        <v>1164001</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5760531818200552</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5541793921496051</v>
+        <v>0.5540351902836996</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5995904800545133</v>
+        <v>0.5974844813542328</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>378070</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>346160</v>
+        <v>347077</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>412433</v>
+        <v>414552</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3059500490475606</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.280127017573389</v>
+        <v>0.2808689417902166</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3337574720418384</v>
+        <v>0.3354721319169408</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>203</v>
@@ -1984,19 +1984,19 @@
         <v>205778</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>179294</v>
+        <v>181947</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>229205</v>
+        <v>231471</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2888349524811096</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2516606051866848</v>
+        <v>0.255384324323938</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3217167872025104</v>
+        <v>0.3248978411258411</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>582</v>
@@ -2005,19 +2005,19 @@
         <v>583849</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>543481</v>
+        <v>546784</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>623645</v>
+        <v>627165</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2996910826093143</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2789703031010639</v>
+        <v>0.2806657676878584</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3201186779092572</v>
+        <v>0.3219253429151034</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>95453</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>78428</v>
+        <v>77128</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>118155</v>
+        <v>113901</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07724414849606472</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06346692436104059</v>
+        <v>0.06241527582676877</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09561617222210742</v>
+        <v>0.09217338756180551</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -2055,19 +2055,19 @@
         <v>80882</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65213</v>
+        <v>64441</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99366</v>
+        <v>100467</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1135271889222849</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09153408646084142</v>
+        <v>0.09045026733398299</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1394722356997483</v>
+        <v>0.1410169471690097</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>175</v>
@@ -2076,19 +2076,19 @@
         <v>176334</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>151700</v>
+        <v>151297</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>202604</v>
+        <v>201484</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09051280470396454</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0778679113685416</v>
+        <v>0.07766122802143613</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1039969563867938</v>
+        <v>0.1034220373426171</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>15863</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9758</v>
+        <v>9271</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25612</v>
+        <v>26306</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0453629265388643</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02790386914656691</v>
+        <v>0.02651292022862231</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07324274997303183</v>
+        <v>0.07522702421352989</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -2201,19 +2201,19 @@
         <v>15319</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9082</v>
+        <v>8928</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24334</v>
+        <v>25312</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02693454064470743</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01596849663585642</v>
+        <v>0.015697205322231</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04278544110929795</v>
+        <v>0.04450473494164158</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>30</v>
@@ -2222,19 +2222,19 @@
         <v>31182</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21002</v>
+        <v>20748</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>45023</v>
+        <v>43104</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03395094089020434</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02286751229920974</v>
+        <v>0.02259063450079992</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04902191983109278</v>
+        <v>0.04693229013266677</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>248446</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>232173</v>
+        <v>231889</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>265324</v>
+        <v>264695</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7104873285230375</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6639495127254051</v>
+        <v>0.6631400763622403</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7587526977549955</v>
+        <v>0.7569548487273787</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>286</v>
@@ -2272,19 +2272,19 @@
         <v>304818</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>280560</v>
+        <v>279952</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>327373</v>
+        <v>328892</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5359421120785368</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.493289817412626</v>
+        <v>0.4922212153072914</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5755983660598745</v>
+        <v>0.5782698361205003</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>523</v>
@@ -2293,19 +2293,19 @@
         <v>553264</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>520617</v>
+        <v>523479</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>582890</v>
+        <v>583679</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6023982361550256</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5668515070095712</v>
+        <v>0.5699680377714894</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6346548627719473</v>
+        <v>0.6355145187821258</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>73040</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>58566</v>
+        <v>59726</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>89484</v>
+        <v>88837</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2088730229739442</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.167483055021638</v>
+        <v>0.1707991692900389</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2559002019732968</v>
+        <v>0.2540497450431872</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>164</v>
@@ -2343,19 +2343,19 @@
         <v>172513</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>152448</v>
+        <v>149654</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>195036</v>
+        <v>193441</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3033193705778406</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2680398965257708</v>
+        <v>0.2631269748896266</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3429196608260334</v>
+        <v>0.340115366928266</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>239</v>
@@ -2364,19 +2364,19 @@
         <v>245553</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>220351</v>
+        <v>219633</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>273702</v>
+        <v>272295</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2673599881164401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2399197308477211</v>
+        <v>0.2391384137669496</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2980088311064554</v>
+        <v>0.2964767182432531</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>12336</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6775</v>
+        <v>6327</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>22864</v>
+        <v>20950</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03527672196415397</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01937558324308677</v>
+        <v>0.01809317901904986</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06538366517720873</v>
+        <v>0.05990998014742755</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>74</v>
@@ -2414,19 +2414,19 @@
         <v>76101</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>59424</v>
+        <v>61140</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>92617</v>
+        <v>93825</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1338039766989153</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1044818117707012</v>
+        <v>0.1074980917188315</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.16284323369472</v>
+        <v>0.1649661376353813</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>86</v>
@@ -2435,19 +2435,19 @@
         <v>88437</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>71313</v>
+        <v>72722</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>107015</v>
+        <v>107310</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09629083483832993</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07764603965279016</v>
+        <v>0.07917976995941503</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1165191542542342</v>
+        <v>0.116840334612842</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>17896</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11401</v>
+        <v>11622</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27759</v>
+        <v>28399</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06001218398678715</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03823155325457397</v>
+        <v>0.03897434216210045</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09308706564005849</v>
+        <v>0.09523474735529719</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -2560,19 +2560,19 @@
         <v>33680</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23743</v>
+        <v>23480</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>46117</v>
+        <v>45747</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02705785185725125</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01907462409789737</v>
+        <v>0.01886309185657118</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03704909424389865</v>
+        <v>0.03675233168403094</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>52</v>
@@ -2581,19 +2581,19 @@
         <v>51576</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>38964</v>
+        <v>39564</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>66492</v>
+        <v>65472</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03342684375333801</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0252531038510185</v>
+        <v>0.02564201419044119</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04309423073151308</v>
+        <v>0.04243286881429224</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>243262</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>229071</v>
+        <v>229332</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>255601</v>
+        <v>255288</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8157640169168775</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7681780217808736</v>
+        <v>0.7690507147274932</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8571425021875244</v>
+        <v>0.8560922818122531</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>599</v>
@@ -2631,19 +2631,19 @@
         <v>598812</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>560903</v>
+        <v>563367</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>627766</v>
+        <v>635216</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4810727542364747</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4506175371598916</v>
+        <v>0.4525963289895903</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5043330915811971</v>
+        <v>0.5103185940400238</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>850</v>
@@ -2652,19 +2652,19 @@
         <v>842073</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>802864</v>
+        <v>804319</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>878730</v>
+        <v>881394</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5457576014766955</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5203453455223188</v>
+        <v>0.5212887681721529</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5695153070022828</v>
+        <v>0.571241653323043</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>27025</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>18811</v>
+        <v>18233</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38419</v>
+        <v>38671</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09062683406267728</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06308044397260278</v>
+        <v>0.06114304209440421</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1288352093180277</v>
+        <v>0.1296819516092081</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>399</v>
@@ -2702,19 +2702,19 @@
         <v>405592</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>371913</v>
+        <v>374351</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>435464</v>
+        <v>437807</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3258436284023596</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2987866391256114</v>
+        <v>0.3007456227969376</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3498418539528969</v>
+        <v>0.3517246193906916</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>426</v>
@@ -2723,19 +2723,19 @@
         <v>432617</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>399061</v>
+        <v>397980</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>468313</v>
+        <v>468789</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2803839343298389</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2586363442829851</v>
+        <v>0.257935641453065</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3035190483106621</v>
+        <v>0.3038275040352588</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>10019</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5036</v>
+        <v>4245</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18720</v>
+        <v>18405</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03359696503365806</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01688914664570862</v>
+        <v>0.01423632610366768</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06277624831700326</v>
+        <v>0.06172019847965726</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>203</v>
@@ -2773,19 +2773,19 @@
         <v>206660</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>180799</v>
+        <v>181218</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>235466</v>
+        <v>233453</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1660257655039144</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1452503133180536</v>
+        <v>0.1455864470492656</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1891680098182789</v>
+        <v>0.1875508911950972</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>212</v>
@@ -2794,19 +2794,19 @@
         <v>216678</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>191166</v>
+        <v>190453</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>243730</v>
+        <v>244571</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1404316204401276</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1238972033846999</v>
+        <v>0.123434971587879</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1579645748308799</v>
+        <v>0.1585092831260966</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>141824</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>119382</v>
+        <v>120539</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>173410</v>
+        <v>169978</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0434392187643996</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03656540889129121</v>
+        <v>0.03691978080294981</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05311359860153232</v>
+        <v>0.05206244434116934</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>109</v>
@@ -2919,19 +2919,19 @@
         <v>113744</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>94220</v>
+        <v>93595</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>135788</v>
+        <v>137586</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0337492442008768</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0279562336930928</v>
+        <v>0.02777076048578579</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0402901715626697</v>
+        <v>0.04082357578419552</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>242</v>
@@ -2940,19 +2940,19 @@
         <v>255568</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>224544</v>
+        <v>223533</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>288350</v>
+        <v>287378</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03851728350600069</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03384161773694749</v>
+        <v>0.03368931629420155</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04345800180693173</v>
+        <v>0.04331145581545895</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>2037536</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1979571</v>
+        <v>1979144</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2089650</v>
+        <v>2092904</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6240765121602679</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6063226215473623</v>
+        <v>0.6061916527889211</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6400387637706343</v>
+        <v>0.6410353707075539</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1775</v>
@@ -2990,19 +2990,19 @@
         <v>1821092</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1766450</v>
+        <v>1765192</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1885728</v>
+        <v>1881343</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5403416487428152</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.524128811847597</v>
+        <v>0.5237555402794799</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5595199720233174</v>
+        <v>0.5582190497439626</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3765</v>
@@ -3011,19 +3011,19 @@
         <v>3858627</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3779468</v>
+        <v>3771956</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>3938151</v>
+        <v>3934494</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5815441428635477</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.5696138037082321</v>
+        <v>0.5684816745758895</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5935294239648166</v>
+        <v>0.5929781524373435</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>859448</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>812950</v>
+        <v>808984</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>910542</v>
+        <v>910198</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.26324011520778</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2489982848263419</v>
+        <v>0.2477835877804687</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2788897746025226</v>
+        <v>0.2787844244973109</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>981</v>
@@ -3061,19 +3061,19 @@
         <v>1005381</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>949939</v>
+        <v>954792</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1055145</v>
+        <v>1059117</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2983094896744329</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2818591415658114</v>
+        <v>0.2832992602032307</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3130753734563168</v>
+        <v>0.3142536630909097</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1834</v>
@@ -3082,19 +3082,19 @@
         <v>1864828</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1795976</v>
+        <v>1795051</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1935703</v>
+        <v>1941234</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2810532879406773</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2706763258927222</v>
+        <v>0.2705369971993372</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2917349682137827</v>
+        <v>0.2925686454737449</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>226074</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>200605</v>
+        <v>198823</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>258874</v>
+        <v>256985</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06924415386755246</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06144324746264454</v>
+        <v>0.06089750244493503</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07929059735478523</v>
+        <v>0.07871178156595786</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>423</v>
@@ -3132,19 +3132,19 @@
         <v>430044</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>392865</v>
+        <v>392286</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>471715</v>
+        <v>472583</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1275996173818751</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1165682013125396</v>
+        <v>0.1163962972019014</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1399640604080386</v>
+        <v>0.1402216608392767</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>648</v>
@@ -3153,19 +3153,19 @@
         <v>656118</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>609111</v>
+        <v>605778</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>705141</v>
+        <v>703933</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09888528568977428</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09180069809822911</v>
+        <v>0.09129846368966266</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1062736835656872</v>
+        <v>0.106091641502609</v>
       </c>
     </row>
     <row r="38">
@@ -3499,19 +3499,19 @@
         <v>15732</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9530</v>
+        <v>9245</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27289</v>
+        <v>25597</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03682976192371206</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02230987673638368</v>
+        <v>0.02164261059730391</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06388576690303352</v>
+        <v>0.0599248342807603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -3520,19 +3520,19 @@
         <v>17265</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10221</v>
+        <v>10266</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28363</v>
+        <v>26836</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05507456298596864</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03260462548091008</v>
+        <v>0.03274728369060365</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09047810036161327</v>
+        <v>0.0856049067791128</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -3541,19 +3541,19 @@
         <v>32997</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23295</v>
+        <v>23115</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46064</v>
+        <v>46378</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04455206185183443</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03145276806258405</v>
+        <v>0.03121000746176632</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06219556061193057</v>
+        <v>0.06261937188766348</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>258121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>234243</v>
+        <v>237646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277597</v>
+        <v>280084</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6042817927370685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5483795212665247</v>
+        <v>0.5563475855117295</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6498758187327296</v>
+        <v>0.6556988489715757</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -3591,19 +3591,19 @@
         <v>205499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>187353</v>
+        <v>186628</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223627</v>
+        <v>222157</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6555359600437238</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5976507849528045</v>
+        <v>0.59533985618529</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7133632011557086</v>
+        <v>0.7086755836052832</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>423</v>
@@ -3612,19 +3612,19 @@
         <v>463620</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>435197</v>
+        <v>434606</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>491032</v>
+        <v>490336</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6259756468469363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5875996069171716</v>
+        <v>0.5868011448762694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6629869553591533</v>
+        <v>0.6620474549425851</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>125861</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>109878</v>
+        <v>105491</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148671</v>
+        <v>144997</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2946505460627119</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2572316382253544</v>
+        <v>0.2469634176926226</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3480490481029343</v>
+        <v>0.3394488844468573</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>62</v>
@@ -3662,19 +3662,19 @@
         <v>65977</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51672</v>
+        <v>53502</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83268</v>
+        <v>84122</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2104655661158049</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1648335238856012</v>
+        <v>0.1706702569155594</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2656241647475079</v>
+        <v>0.2683477910481153</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>178</v>
@@ -3683,19 +3683,19 @@
         <v>191838</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>167799</v>
+        <v>167788</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>217893</v>
+        <v>215604</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2590183863929711</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2265613295973985</v>
+        <v>0.2265454380161508</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2941968323246767</v>
+        <v>0.2911067014830787</v>
       </c>
     </row>
     <row r="7">
@@ -3712,19 +3712,19 @@
         <v>27439</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18087</v>
+        <v>18066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39751</v>
+        <v>40877</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06423789927650754</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04234329888124066</v>
+        <v>0.04229320618503375</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09306033754406151</v>
+        <v>0.09569532281335694</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -3733,19 +3733,19 @@
         <v>24741</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15501</v>
+        <v>15876</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37296</v>
+        <v>37698</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07892391085450268</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04944780588020342</v>
+        <v>0.05064314952785294</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1189727214422793</v>
+        <v>0.1202560500514608</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -3754,19 +3754,19 @@
         <v>52181</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37120</v>
+        <v>38850</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67898</v>
+        <v>69401</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07045390490825813</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0501192865444838</v>
+        <v>0.05245469488160479</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0916746165945522</v>
+        <v>0.093703955016413</v>
       </c>
     </row>
     <row r="8">
@@ -3858,19 +3858,19 @@
         <v>14045</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7481</v>
+        <v>7516</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23632</v>
+        <v>24132</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03370024016700766</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01795001032009011</v>
+        <v>0.01803494532164385</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05670474713711923</v>
+        <v>0.05790613757857733</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -3879,19 +3879,19 @@
         <v>20068</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12114</v>
+        <v>12113</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31569</v>
+        <v>30467</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05956378960468013</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03595728866841976</v>
+        <v>0.03595409591882175</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09370109272852913</v>
+        <v>0.09043110954573266</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>31</v>
@@ -3900,19 +3900,19 @@
         <v>34112</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23244</v>
+        <v>22688</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48170</v>
+        <v>47488</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04526207459832927</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03084179817432637</v>
+        <v>0.03010401620313887</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.063914177548631</v>
+        <v>0.06300978882246661</v>
       </c>
     </row>
     <row r="10">
@@ -3929,19 +3929,19 @@
         <v>271059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>250754</v>
+        <v>249715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>292456</v>
+        <v>291796</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6504121120054744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6016893662262255</v>
+        <v>0.5991953779685969</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7017528824336935</v>
+        <v>0.7001714625211616</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -3950,19 +3950,19 @@
         <v>184432</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164760</v>
+        <v>165596</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203230</v>
+        <v>203853</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5474216795905901</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4890333651967284</v>
+        <v>0.4915137395873914</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6032187561503369</v>
+        <v>0.6050669937763095</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>404</v>
@@ -3971,19 +3971,19 @@
         <v>455491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>429993</v>
+        <v>424427</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>483814</v>
+        <v>485449</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.604372092229354</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5705399824661207</v>
+        <v>0.5631539836475064</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6419528881537845</v>
+        <v>0.6441217474301036</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>107148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88780</v>
+        <v>89042</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127540</v>
+        <v>125574</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2571049025832675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2130285317485119</v>
+        <v>0.2136581238499501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3060345540070465</v>
+        <v>0.3013169365553912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -4021,19 +4021,19 @@
         <v>108736</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>92001</v>
+        <v>92303</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>127133</v>
+        <v>128281</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3227436327831146</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2730739738179185</v>
+        <v>0.2739680806434768</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3773496774290644</v>
+        <v>0.3807568675346065</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>198</v>
@@ -4042,19 +4042,19 @@
         <v>215884</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>191378</v>
+        <v>190356</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>243772</v>
+        <v>244551</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2864475159272586</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2539313608922154</v>
+        <v>0.2525755404117643</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3234502453263391</v>
+        <v>0.3244851503985682</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>24498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15375</v>
+        <v>15528</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37232</v>
+        <v>37787</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05878274524425042</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03689329090255411</v>
+        <v>0.03725880836602357</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08933842460691482</v>
+        <v>0.09067001147068884</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -4092,19 +4092,19 @@
         <v>23675</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15323</v>
+        <v>15330</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34720</v>
+        <v>35039</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07027089802161519</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04548092695787289</v>
+        <v>0.04550309639298971</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1030541876919464</v>
+        <v>0.1040003913158855</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>44</v>
@@ -4113,19 +4113,19 @@
         <v>48173</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35118</v>
+        <v>34294</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>66042</v>
+        <v>63743</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06391831724505821</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04659696880664856</v>
+        <v>0.04550352020419086</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08762842401103718</v>
+        <v>0.08457854511685972</v>
       </c>
     </row>
     <row r="13">
@@ -4217,19 +4217,19 @@
         <v>19443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12413</v>
+        <v>11474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28430</v>
+        <v>29757</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03125754123104422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01995458397464014</v>
+        <v>0.01844504705766743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04570384918060721</v>
+        <v>0.04783712751398772</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4238,19 +4238,19 @@
         <v>3229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>995</v>
+        <v>817</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8880</v>
+        <v>8662</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01250086873470607</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003852974674942547</v>
+        <v>0.003161902839077205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0343842814428757</v>
+        <v>0.03353982436940676</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -4259,19 +4259,19 @@
         <v>22672</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14479</v>
+        <v>14181</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33340</v>
+        <v>33194</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02575471007309678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01644818053138845</v>
+        <v>0.01610941900482155</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03787354929456557</v>
+        <v>0.03770695811694886</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>361556</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>334813</v>
+        <v>337022</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>387366</v>
+        <v>386139</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5812422186447743</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5382498916859499</v>
+        <v>0.5418011073381875</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6227352300962464</v>
+        <v>0.6207623695739793</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>125</v>
@@ -4309,19 +4309,19 @@
         <v>131162</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>114685</v>
+        <v>115996</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>147799</v>
+        <v>147336</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5078620095048035</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4440615287381833</v>
+        <v>0.4491408247893736</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5722791330377646</v>
+        <v>0.5704866776775339</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>469</v>
@@ -4330,19 +4330,19 @@
         <v>492718</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>463931</v>
+        <v>462041</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>522893</v>
+        <v>521980</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.5597139384388389</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5270127026675815</v>
+        <v>0.524865509147897</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5939924934841792</v>
+        <v>0.5929553467425054</v>
       </c>
     </row>
     <row r="16">
@@ -4359,19 +4359,19 @@
         <v>197744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>175461</v>
+        <v>175883</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>225153</v>
+        <v>220797</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3178963490896485</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2820735441888326</v>
+        <v>0.2827511834298773</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3619582382479071</v>
+        <v>0.3549569296143876</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -4380,19 +4380,19 @@
         <v>95263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80785</v>
+        <v>80922</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112023</v>
+        <v>111169</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3688599324812282</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3128010679406883</v>
+        <v>0.3133308527513107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4337571692646607</v>
+        <v>0.4304502748012614</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>272</v>
@@ -4401,19 +4401,19 @@
         <v>293007</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>265050</v>
+        <v>263669</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>319645</v>
+        <v>322145</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3328480413294415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3010900619496738</v>
+        <v>0.2995210765031801</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3631076305222363</v>
+        <v>0.3659483783732815</v>
       </c>
     </row>
     <row r="17">
@@ -4430,19 +4430,19 @@
         <v>43296</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31070</v>
+        <v>30986</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60438</v>
+        <v>59384</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06960389103453289</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04994808476926953</v>
+        <v>0.04981346648001191</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09716133479729135</v>
+        <v>0.09546670120152216</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -4451,19 +4451,19 @@
         <v>28610</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19653</v>
+        <v>19164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40809</v>
+        <v>40326</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1107771892792622</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07609571637124592</v>
+        <v>0.07420181437717337</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1580118773386154</v>
+        <v>0.1561431097594526</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>64</v>
@@ -4472,19 +4472,19 @@
         <v>71906</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55893</v>
+        <v>57173</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>92133</v>
+        <v>93563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08168331015862285</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06349242794825406</v>
+        <v>0.06494680348959368</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1046601358167541</v>
+        <v>0.1062855154495571</v>
       </c>
     </row>
     <row r="18">
@@ -4576,19 +4576,19 @@
         <v>59153</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44235</v>
+        <v>45623</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75987</v>
+        <v>76506</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05147802626443324</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03849613559528862</v>
+        <v>0.03970386108901067</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06612849722480811</v>
+        <v>0.06658024254732045</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -4597,19 +4597,19 @@
         <v>29158</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20185</v>
+        <v>20820</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41092</v>
+        <v>41467</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03825509210002598</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02648232828924231</v>
+        <v>0.02731525660505929</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0539128104815274</v>
+        <v>0.05440476803013759</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -4618,19 +4618,19 @@
         <v>88311</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69955</v>
+        <v>70904</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109496</v>
+        <v>107968</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04620485305817747</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03660081418582983</v>
+        <v>0.03709727401978461</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05728936067429816</v>
+        <v>0.05648990627280393</v>
       </c>
     </row>
     <row r="20">
@@ -4647,19 +4647,19 @@
         <v>682706</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>651075</v>
+        <v>648142</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>717006</v>
+        <v>718489</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5941298523822404</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5666033345488218</v>
+        <v>0.5640509267759617</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6239797116322592</v>
+        <v>0.6252701109689168</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>372</v>
@@ -4668,19 +4668,19 @@
         <v>396665</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>365586</v>
+        <v>367904</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>423900</v>
+        <v>425889</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.520419288694646</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4796439120053939</v>
+        <v>0.4826854820897713</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5561516522184966</v>
+        <v>0.5587616685644425</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1012</v>
@@ -4689,19 +4689,19 @@
         <v>1079370</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1035679</v>
+        <v>1032948</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1123000</v>
+        <v>1124035</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5647348206424861</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5418750997493395</v>
+        <v>0.5404464374278347</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5875620086130083</v>
+        <v>0.588103954101202</v>
       </c>
     </row>
     <row r="21">
@@ -4718,19 +4718,19 @@
         <v>324582</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>293320</v>
+        <v>292833</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>355666</v>
+        <v>355296</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2824696538185854</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2552636259233302</v>
+        <v>0.254840054390404</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3095214466818</v>
+        <v>0.3091988200520119</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>237</v>
@@ -4739,19 +4739,19 @@
         <v>260070</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>234457</v>
+        <v>230687</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>289624</v>
+        <v>287071</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3412087854136069</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3076047225772977</v>
+        <v>0.3026592354566864</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3799834414537042</v>
+        <v>0.3766340449222343</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>545</v>
@@ -4760,19 +4760,19 @@
         <v>584652</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>545140</v>
+        <v>544360</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>624624</v>
+        <v>630587</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3058942289570856</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2852212888894253</v>
+        <v>0.2848133664351397</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3268081597483937</v>
+        <v>0.3299281859094551</v>
       </c>
     </row>
     <row r="22">
@@ -4789,19 +4789,19 @@
         <v>82645</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65086</v>
+        <v>64713</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>102967</v>
+        <v>103003</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07192246753474096</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05664162398761934</v>
+        <v>0.0563167650799003</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08960814745067096</v>
+        <v>0.08963919195101248</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -4810,19 +4810,19 @@
         <v>76309</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60963</v>
+        <v>60201</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>96484</v>
+        <v>93750</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1001168337917211</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07998214176235699</v>
+        <v>0.07898301990366963</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1265854614638885</v>
+        <v>0.1229987465477891</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>143</v>
@@ -4831,19 +4831,19 @@
         <v>158954</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>133337</v>
+        <v>133138</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>183833</v>
+        <v>184181</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08316609734225076</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06976307018040433</v>
+        <v>0.06965907687656182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09618281608417305</v>
+        <v>0.09636480824343074</v>
       </c>
     </row>
     <row r="23">
@@ -4935,19 +4935,19 @@
         <v>34412</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24465</v>
+        <v>24127</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>47673</v>
+        <v>47849</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06739552848913739</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0479136185864085</v>
+        <v>0.04725236255496335</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09336819789244198</v>
+        <v>0.09371153598008933</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>24</v>
@@ -4956,19 +4956,19 @@
         <v>26451</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17045</v>
+        <v>17127</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39905</v>
+        <v>38367</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03544388780705456</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02283977854376553</v>
+        <v>0.02295016178444568</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05347127677339593</v>
+        <v>0.051410018982746</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>57</v>
@@ -4977,19 +4977,19 @@
         <v>60863</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>46832</v>
+        <v>47038</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>78400</v>
+        <v>78081</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04842389326220786</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03726048802189626</v>
+        <v>0.03742460799025224</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06237673038440276</v>
+        <v>0.06212241607692239</v>
       </c>
     </row>
     <row r="25">
@@ -5006,19 +5006,19 @@
         <v>323720</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>300173</v>
+        <v>301256</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>344591</v>
+        <v>346306</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6340048319252383</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5878873508040867</v>
+        <v>0.5900093061352946</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6748806526836056</v>
+        <v>0.6782385744565457</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>359</v>
@@ -5027,19 +5027,19 @@
         <v>390356</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>361971</v>
+        <v>360963</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>419773</v>
+        <v>417320</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5230619143878729</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4850269604832666</v>
+        <v>0.4836766928612756</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5624798305114221</v>
+        <v>0.5591929610515737</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>668</v>
@@ -5048,19 +5048,19 @@
         <v>714076</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>679933</v>
+        <v>675202</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>751101</v>
+        <v>746474</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5681312643212283</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5409663502487693</v>
+        <v>0.5372024275184226</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5975887954260273</v>
+        <v>0.593907220576516</v>
       </c>
     </row>
     <row r="26">
@@ -5077,19 +5077,19 @@
         <v>130918</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>112748</v>
+        <v>110998</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>153786</v>
+        <v>151145</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.256402966690213</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2208160863208256</v>
+        <v>0.2173899668062973</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3011895542695801</v>
+        <v>0.2960165386142004</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>223</v>
@@ -5098,19 +5098,19 @@
         <v>241516</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>214992</v>
+        <v>214078</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>266954</v>
+        <v>270022</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3236223194994114</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2880804801247614</v>
+        <v>0.2868568335186826</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3577080480337226</v>
+        <v>0.3618186318234998</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>347</v>
@@ -5119,19 +5119,19 @@
         <v>372434</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>338997</v>
+        <v>341546</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>403612</v>
+        <v>406296</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2963151907407766</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2697119097847023</v>
+        <v>0.2717401360316345</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3211205895179208</v>
+        <v>0.3232559421434158</v>
       </c>
     </row>
     <row r="27">
@@ -5148,19 +5148,19 @@
         <v>21545</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14182</v>
+        <v>13722</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>33439</v>
+        <v>30993</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04219667289541133</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02777495400463053</v>
+        <v>0.02687455730642963</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0654892176909751</v>
+        <v>0.06069970975401891</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>83</v>
@@ -5169,19 +5169,19 @@
         <v>87967</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>71500</v>
+        <v>72331</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>108461</v>
+        <v>106628</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1178718783056612</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09580777443886856</v>
+        <v>0.09692123403373719</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1453338348274673</v>
+        <v>0.14287730306219</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>104</v>
@@ -5190,19 +5190,19 @@
         <v>109512</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>89998</v>
+        <v>90302</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>129585</v>
+        <v>131238</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08712965167578725</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07160372244428162</v>
+        <v>0.07184615803739211</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1030996504903506</v>
+        <v>0.1044149326839037</v>
       </c>
     </row>
     <row r="28">
@@ -5294,19 +5294,19 @@
         <v>22460</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14432</v>
+        <v>14576</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31734</v>
+        <v>32653</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08445236895684922</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05426447874321017</v>
+        <v>0.05480650532489068</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1193219642768931</v>
+        <v>0.1227774833566649</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -5315,19 +5315,19 @@
         <v>39342</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28854</v>
+        <v>27367</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53204</v>
+        <v>53769</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03590337317083735</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02633140892634607</v>
+        <v>0.02497498476275242</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04855363354196925</v>
+        <v>0.04906937396794567</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>59</v>
@@ -5336,19 +5336,19 @@
         <v>61802</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47513</v>
+        <v>48286</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>78910</v>
+        <v>81230</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04538508832555298</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03489140623682328</v>
+        <v>0.03545952875064946</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05794837000918911</v>
+        <v>0.05965160810984087</v>
       </c>
     </row>
     <row r="30">
@@ -5365,19 +5365,19 @@
         <v>201541</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>188242</v>
+        <v>185324</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>214568</v>
+        <v>213421</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7578182429627041</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7078117259294434</v>
+        <v>0.6968412901149974</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8068017938759459</v>
+        <v>0.8024889621070878</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>505</v>
@@ -5386,19 +5386,19 @@
         <v>535961</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>504452</v>
+        <v>500230</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>573789</v>
+        <v>568418</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4891122437744415</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4603575807370205</v>
+        <v>0.4565048543489765</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5236337333920021</v>
+        <v>0.518732205265703</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>705</v>
@@ -5407,19 +5407,19 @@
         <v>737502</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>698011</v>
+        <v>702408</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>775480</v>
+        <v>776954</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5415910582878497</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5125902178726149</v>
+        <v>0.5158194891875982</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.569480874448076</v>
+        <v>0.5705631773712937</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>32503</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21864</v>
+        <v>23409</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42707</v>
+        <v>45451</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1222137555630275</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08221228555204459</v>
+        <v>0.08802107011282836</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1605840525237123</v>
+        <v>0.1709026066946425</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>376</v>
@@ -5457,19 +5457,19 @@
         <v>395306</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>362503</v>
+        <v>363004</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>427654</v>
+        <v>427458</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3607518700674787</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.330816309137603</v>
+        <v>0.3312738777493931</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.390272923963061</v>
+        <v>0.3900937039297653</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>408</v>
@@ -5478,19 +5478,19 @@
         <v>427808</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>391123</v>
+        <v>393581</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>461949</v>
+        <v>462842</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3141649032588715</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2872245128072086</v>
+        <v>0.2890296473133654</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.339236266743413</v>
+        <v>0.3398924051254344</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>9445</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4269</v>
+        <v>4374</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16787</v>
+        <v>16904</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03551563251741917</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01605163313287593</v>
+        <v>0.01644686190783719</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06312184572571643</v>
+        <v>0.06356177181996339</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>115</v>
@@ -5528,19 +5528,19 @@
         <v>125174</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>103308</v>
+        <v>103397</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>146309</v>
+        <v>148019</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1142325129872424</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09427750540537021</v>
+        <v>0.09435878953034108</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1335202672574298</v>
+        <v>0.1350802272209291</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>124</v>
@@ -5549,19 +5549,19 @@
         <v>134619</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>112368</v>
+        <v>113919</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>158695</v>
+        <v>157364</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09885895012772582</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08251877300314503</v>
+        <v>0.08365733959735315</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1165389741313343</v>
+        <v>0.1155616413293194</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>165245</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>141638</v>
+        <v>141421</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>194859</v>
+        <v>194029</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0487220805960601</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04176164910439046</v>
+        <v>0.04169781931952541</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05745381531048031</v>
+        <v>0.05720924585486496</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>124</v>
@@ -5674,19 +5674,19 @@
         <v>135513</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>111195</v>
+        <v>111409</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>161032</v>
+        <v>160922</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03857545162015242</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03165309446222922</v>
+        <v>0.03171403998858868</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04583992442624147</v>
+        <v>0.04580862023755641</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>282</v>
@@ -5695,19 +5695,19 @@
         <v>300757</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>266250</v>
+        <v>266967</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>336562</v>
+        <v>338471</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04355959570770267</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03856179436263462</v>
+        <v>0.03866564899971887</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04874530115378356</v>
+        <v>0.04902181661906227</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>2098704</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2038437</v>
+        <v>2038125</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2151095</v>
+        <v>2156458</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6187992871164201</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6010298590977154</v>
+        <v>0.6009378900281085</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6342469354289543</v>
+        <v>0.6358279659540623</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1709</v>
@@ -5745,19 +5745,19 @@
         <v>1844074</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1780693</v>
+        <v>1780238</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1905405</v>
+        <v>1902544</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5249389841201512</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.5068968451725588</v>
+        <v>0.5067672393942813</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5423977164885087</v>
+        <v>0.541583109601961</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3681</v>
@@ -5766,19 +5766,19 @@
         <v>3942777</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3855560</v>
+        <v>3847537</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4034478</v>
+        <v>4018268</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.571044274393927</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.558412239521989</v>
+        <v>0.5572503604270735</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5843255260007352</v>
+        <v>0.5819778041510772</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>918756</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>867611</v>
+        <v>865338</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>971447</v>
+        <v>973131</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2708938307741318</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.255813632371456</v>
+        <v>0.2551433942869493</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2864296877767739</v>
+        <v>0.2869260729595755</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1085</v>
@@ -5816,19 +5816,19 @@
         <v>1166867</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1111255</v>
+        <v>1109232</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1221661</v>
+        <v>1223754</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3321636046961907</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3163329199567926</v>
+        <v>0.3157567959680205</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3477613966427368</v>
+        <v>0.3483569531021457</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1948</v>
@@ -5837,19 +5837,19 @@
         <v>2085624</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2004841</v>
+        <v>2004639</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2173100</v>
+        <v>2160791</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3020671675283133</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2903671564612871</v>
+        <v>0.2903378264198941</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3147365488329689</v>
+        <v>0.3129538423849474</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>208869</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>179870</v>
+        <v>181023</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>240019</v>
+        <v>245124</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06158480151338809</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05303425286210579</v>
+        <v>0.05337439872842165</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07076911047475615</v>
+        <v>0.07227427282681131</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>339</v>
@@ -5887,19 +5887,19 @@
         <v>366476</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>330633</v>
+        <v>329875</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>405010</v>
+        <v>405256</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1043219595635057</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09411899374517831</v>
+        <v>0.09390318837659192</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1152912698847176</v>
+        <v>0.1153611832048387</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>525</v>
@@ -5908,19 +5908,19 @@
         <v>575345</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>524014</v>
+        <v>532113</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>623437</v>
+        <v>627147</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0833289623700571</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0758945089882286</v>
+        <v>0.07706750434459786</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09029422235524738</v>
+        <v>0.09083154458775591</v>
       </c>
     </row>
     <row r="38">
@@ -6254,19 +6254,19 @@
         <v>12480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6882</v>
+        <v>7113</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21597</v>
+        <v>20426</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02914966459413129</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01607491876822864</v>
+        <v>0.01661362821003791</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05044545296948128</v>
+        <v>0.04770835524964509</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -6275,19 +6275,19 @@
         <v>14301</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8886</v>
+        <v>8179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24828</v>
+        <v>23042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04120543706061406</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02560393804596559</v>
+        <v>0.02356704386313713</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07153988617666307</v>
+        <v>0.0663943466167335</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -6296,19 +6296,19 @@
         <v>26781</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17878</v>
+        <v>18124</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38999</v>
+        <v>37668</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03454707054997618</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02306260643216755</v>
+        <v>0.0233797003386937</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0503085192955148</v>
+        <v>0.04859238720082013</v>
       </c>
     </row>
     <row r="5">
@@ -6325,19 +6325,19 @@
         <v>272067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253709</v>
+        <v>251124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292324</v>
+        <v>290829</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6354698299187335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5925913606710291</v>
+        <v>0.5865538498533927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6827849469921581</v>
+        <v>0.6792936478313577</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>210</v>
@@ -6346,19 +6346,19 @@
         <v>217466</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199011</v>
+        <v>198249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>234361</v>
+        <v>236142</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6266028045969906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5734284745449011</v>
+        <v>0.5712319052849961</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6752844308440422</v>
+        <v>0.6804161118517386</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>462</v>
@@ -6367,19 +6367,19 @@
         <v>489533</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>460162</v>
+        <v>463562</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>516293</v>
+        <v>517253</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6315000357462524</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5936122357813698</v>
+        <v>0.5979975922340836</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6660211018668176</v>
+        <v>0.6672602741450759</v>
       </c>
     </row>
     <row r="6">
@@ -6396,19 +6396,19 @@
         <v>107280</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91255</v>
+        <v>90830</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126606</v>
+        <v>127111</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2505749233795245</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2131455448729206</v>
+        <v>0.2121523813472483</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2957146866651382</v>
+        <v>0.2968950900072373</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>79</v>
@@ -6417,19 +6417,19 @@
         <v>83528</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68740</v>
+        <v>67746</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>100601</v>
+        <v>99356</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2406767547626932</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1980670516691201</v>
+        <v>0.195201151101822</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2898696871145789</v>
+        <v>0.2862836470975107</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>180</v>
@@ -6438,19 +6438,19 @@
         <v>190808</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>166814</v>
+        <v>168125</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>216579</v>
+        <v>216322</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2461434832214615</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2151915656987624</v>
+        <v>0.2168826406021603</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2793884977470301</v>
+        <v>0.2790573641598549</v>
       </c>
     </row>
     <row r="7">
@@ -6467,19 +6467,19 @@
         <v>36308</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24840</v>
+        <v>24892</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52213</v>
+        <v>50893</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08480558210761069</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05801970522701994</v>
+        <v>0.05813956381688541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1219555041363172</v>
+        <v>0.1188713348204241</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -6488,19 +6488,19 @@
         <v>31761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21892</v>
+        <v>22024</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44229</v>
+        <v>45535</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09151500357970209</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06307889532539462</v>
+        <v>0.06345992001627174</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1274406606674794</v>
+        <v>0.1312052856804786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -6509,19 +6509,19 @@
         <v>68069</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51827</v>
+        <v>53272</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85602</v>
+        <v>87812</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08780941048231</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06685661264254202</v>
+        <v>0.0687208383070706</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.110427690040152</v>
+        <v>0.113278514224016</v>
       </c>
     </row>
     <row r="8">
@@ -6613,19 +6613,19 @@
         <v>14989</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8545</v>
+        <v>8230</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24962</v>
+        <v>24157</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04002442743807888</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02281758114615645</v>
+        <v>0.02197603259018313</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06665542053209222</v>
+        <v>0.06450558201948985</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -6634,19 +6634,19 @@
         <v>12676</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6966</v>
+        <v>6499</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22281</v>
+        <v>22227</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03405057975608512</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01871188670011455</v>
+        <v>0.01745750541226174</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05985216759282689</v>
+        <v>0.05970516583731846</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -6655,19 +6655,19 @@
         <v>27665</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18522</v>
+        <v>17764</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40916</v>
+        <v>40503</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03704640527965961</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0248025925550334</v>
+        <v>0.02378796377341626</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05479077893158629</v>
+        <v>0.05423773404316182</v>
       </c>
     </row>
     <row r="10">
@@ -6684,19 +6684,19 @@
         <v>233319</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>213367</v>
+        <v>213271</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>252320</v>
+        <v>252066</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6230153446482078</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5697388548056055</v>
+        <v>0.5694828754458811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6737539159944627</v>
+        <v>0.6730739754458953</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -6705,19 +6705,19 @@
         <v>234442</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214800</v>
+        <v>214928</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>252377</v>
+        <v>252670</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6297590495572208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5769948253479544</v>
+        <v>0.5773386637675317</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6779357311955363</v>
+        <v>0.6787212740886576</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>443</v>
@@ -6726,19 +6726,19 @@
         <v>467761</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>438609</v>
+        <v>442546</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>495239</v>
+        <v>494223</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6263771482491626</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5873397252425243</v>
+        <v>0.5926116922134927</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6631735891382419</v>
+        <v>0.6618124505830226</v>
       </c>
     </row>
     <row r="11">
@@ -6755,19 +6755,19 @@
         <v>106816</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88811</v>
+        <v>88957</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124000</v>
+        <v>126094</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2852250144934911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2371453003546248</v>
+        <v>0.2375372298165152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3311103079384257</v>
+        <v>0.3367014994224506</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -6776,19 +6776,19 @@
         <v>95536</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79431</v>
+        <v>78690</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>113508</v>
+        <v>113296</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2566291758853985</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2133688661688194</v>
+        <v>0.2113761897385777</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3049045336466003</v>
+        <v>0.3043352898916848</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>190</v>
@@ -6797,19 +6797,19 @@
         <v>202353</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>178474</v>
+        <v>178429</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>228645</v>
+        <v>227379</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2709697060981724</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.238994380797237</v>
+        <v>0.2389333481892944</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.306177405985772</v>
+        <v>0.3044828976798032</v>
       </c>
     </row>
     <row r="12">
@@ -6826,19 +6826,19 @@
         <v>19375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11854</v>
+        <v>11841</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31087</v>
+        <v>31458</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05173521342022212</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03165317268605451</v>
+        <v>0.03161919006323318</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08301043959233674</v>
+        <v>0.08400128932174464</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -6847,19 +6847,19 @@
         <v>29618</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20072</v>
+        <v>20896</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42138</v>
+        <v>41123</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07956119480129549</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05391704080411217</v>
+        <v>0.05612971901097787</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1131918795981025</v>
+        <v>0.1104657561251804</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>44</v>
@@ -6868,19 +6868,19 @@
         <v>48993</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35977</v>
+        <v>34795</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65037</v>
+        <v>64077</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06560674037300541</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04817660828689386</v>
+        <v>0.04659426390290376</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08709139363993328</v>
+        <v>0.08580535902673128</v>
       </c>
     </row>
     <row r="13">
@@ -6972,19 +6972,19 @@
         <v>25957</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17550</v>
+        <v>17388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38489</v>
+        <v>39348</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05026414556358001</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03398520927925333</v>
+        <v>0.0336704078217954</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07453107067063573</v>
+        <v>0.07619382400530374</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -6993,19 +6993,19 @@
         <v>7887</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3115</v>
+        <v>3272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15293</v>
+        <v>15391</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04839013682241159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01911147912966888</v>
+        <v>0.02007732589903963</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09382792307054691</v>
+        <v>0.09442952514468271</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -7014,19 +7014,19 @@
         <v>33844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22799</v>
+        <v>23202</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47238</v>
+        <v>47409</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04981457323457437</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03355746072615975</v>
+        <v>0.03415007991832381</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06952894005576707</v>
+        <v>0.06978079174640725</v>
       </c>
     </row>
     <row r="15">
@@ -7043,19 +7043,19 @@
         <v>316450</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>292830</v>
+        <v>294699</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>338239</v>
+        <v>339991</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6127826720655145</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5670440268733574</v>
+        <v>0.5706629377525264</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6549760366219558</v>
+        <v>0.6583677122779725</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>87</v>
@@ -7064,19 +7064,19 @@
         <v>93864</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>81645</v>
+        <v>81150</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>108244</v>
+        <v>106226</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5758931406048193</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5009282548908549</v>
+        <v>0.4978910147215539</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6641250763051312</v>
+        <v>0.6517408604637499</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>398</v>
@@ -7085,19 +7085,19 @@
         <v>410314</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>383495</v>
+        <v>385276</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>437205</v>
+        <v>437036</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6039329200817691</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5644594482002593</v>
+        <v>0.5670801630039474</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6435138597683934</v>
+        <v>0.6432650164549736</v>
       </c>
     </row>
     <row r="16">
@@ -7114,19 +7114,19 @@
         <v>133123</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115540</v>
+        <v>113030</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>154674</v>
+        <v>153618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2577836618530704</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2237340520499729</v>
+        <v>0.2188745601717041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2995155896633744</v>
+        <v>0.2974703020698778</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -7135,19 +7135,19 @@
         <v>53564</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41263</v>
+        <v>41892</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66935</v>
+        <v>65997</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3286403701263013</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2531641479026433</v>
+        <v>0.2570276073169963</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4106768844174228</v>
+        <v>0.4049213441530451</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -7156,19 +7156,19 @@
         <v>186688</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162981</v>
+        <v>162661</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>214212</v>
+        <v>210273</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2747820966331601</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2398889893505428</v>
+        <v>0.2394172149085613</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3152949124946738</v>
+        <v>0.3094961950700045</v>
       </c>
     </row>
     <row r="17">
@@ -7185,19 +7185,19 @@
         <v>40884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29680</v>
+        <v>29347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56615</v>
+        <v>56018</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07916952051783507</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05747251360871037</v>
+        <v>0.05682865953662283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1096307241345269</v>
+        <v>0.1084746306876171</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -7206,19 +7206,19 @@
         <v>7673</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3252</v>
+        <v>3390</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14319</v>
+        <v>15886</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04707635244646778</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01995264083450019</v>
+        <v>0.02079999460119096</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08785120566068572</v>
+        <v>0.09746863032209656</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -7227,19 +7227,19 @@
         <v>48557</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36449</v>
+        <v>36464</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>63083</v>
+        <v>62774</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0714704100504964</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05364853669568739</v>
+        <v>0.05367117849950024</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09285083091003775</v>
+        <v>0.09239619338135487</v>
       </c>
     </row>
     <row r="18">
@@ -7331,19 +7331,19 @@
         <v>36089</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25684</v>
+        <v>25434</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48984</v>
+        <v>48880</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03167182871608115</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02254081578484217</v>
+        <v>0.02232059226101854</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04298857178961323</v>
+        <v>0.04289726337192776</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -7352,19 +7352,19 @@
         <v>36561</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25636</v>
+        <v>26333</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50880</v>
+        <v>48883</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04471011994490439</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03135077088120795</v>
+        <v>0.03220232019105155</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06222087845796286</v>
+        <v>0.05977958020844924</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -7373,19 +7373,19 @@
         <v>72650</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57364</v>
+        <v>57062</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>92023</v>
+        <v>89213</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03711930888110644</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02930912644197498</v>
+        <v>0.02915524769252718</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04701762483111428</v>
+        <v>0.0455819940140434</v>
       </c>
     </row>
     <row r="20">
@@ -7402,19 +7402,19 @@
         <v>701541</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>667705</v>
+        <v>666525</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>734471</v>
+        <v>734635</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.615675526865385</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5859814586666965</v>
+        <v>0.5849459056124131</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6445756684272762</v>
+        <v>0.6447189004475893</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>465</v>
@@ -7423,19 +7423,19 @@
         <v>473453</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>443440</v>
+        <v>445834</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>501707</v>
+        <v>502689</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5789871617492655</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5422836616971274</v>
+        <v>0.5452114413487553</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6135380672842365</v>
+        <v>0.6147397307555396</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1142</v>
@@ -7444,19 +7444,19 @@
         <v>1174994</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1132819</v>
+        <v>1130482</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1222176</v>
+        <v>1219359</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6003468969284002</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5787981675847227</v>
+        <v>0.5776041552940169</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6244535616608233</v>
+        <v>0.6230142580723184</v>
       </c>
     </row>
     <row r="21">
@@ -7473,19 +7473,19 @@
         <v>332374</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>304199</v>
+        <v>301111</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>365952</v>
+        <v>363877</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2916931814938675</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2669663840535756</v>
+        <v>0.2642567635955445</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.321160926855833</v>
+        <v>0.3193402165271543</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>219</v>
@@ -7494,19 +7494,19 @@
         <v>231438</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>205360</v>
+        <v>206107</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>259638</v>
+        <v>260838</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2830256668543998</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2511356751293422</v>
+        <v>0.252048582012413</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3175117241798205</v>
+        <v>0.3189794743218093</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>532</v>
@@ -7515,19 +7515,19 @@
         <v>563812</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>520441</v>
+        <v>521492</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>604245</v>
+        <v>603313</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2880718393064658</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2659120859903945</v>
+        <v>0.2664492115444316</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3087304836412045</v>
+        <v>0.3082543747238898</v>
       </c>
     </row>
     <row r="22">
@@ -7544,19 +7544,19 @@
         <v>69461</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54509</v>
+        <v>55153</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87367</v>
+        <v>86173</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06095946292466637</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04783710662757353</v>
+        <v>0.04840282588809831</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07667357194568294</v>
+        <v>0.07562575907120313</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -7565,19 +7565,19 @@
         <v>76275</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60295</v>
+        <v>60527</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>94495</v>
+        <v>96078</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09327705145143039</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07373472359840819</v>
+        <v>0.07401856237194593</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1155585978250374</v>
+        <v>0.1174941605256998</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>137</v>
@@ -7586,19 +7586,19 @@
         <v>145736</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121666</v>
+        <v>123831</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>169892</v>
+        <v>170809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0744619548840276</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06216379396379353</v>
+        <v>0.06326956291357269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08680390797785641</v>
+        <v>0.08727229293377281</v>
       </c>
     </row>
     <row r="23">
@@ -7690,19 +7690,19 @@
         <v>23421</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15145</v>
+        <v>14958</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34260</v>
+        <v>34261</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03841900797018153</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0248427348355731</v>
+        <v>0.0245364554771823</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05619800673141434</v>
+        <v>0.05619944829833361</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -7711,19 +7711,19 @@
         <v>29106</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19013</v>
+        <v>20030</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41575</v>
+        <v>41790</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03986092677312419</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02603807767789935</v>
+        <v>0.02743120410426543</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05693642589615076</v>
+        <v>0.05723088474868923</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>49</v>
@@ -7732,19 +7732,19 @@
         <v>52528</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>40054</v>
+        <v>39104</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>69018</v>
+        <v>67727</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03920484418542221</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02989474721424889</v>
+        <v>0.02918563389403139</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05151277485482589</v>
+        <v>0.05054932607168328</v>
       </c>
     </row>
     <row r="25">
@@ -7761,19 +7761,19 @@
         <v>378663</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>352911</v>
+        <v>352645</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>401990</v>
+        <v>402240</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6211378066320703</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5788952264223983</v>
+        <v>0.5784593085176122</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6594016408064555</v>
+        <v>0.6598121209202055</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>368</v>
@@ -7782,19 +7782,19 @@
         <v>385654</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>356711</v>
+        <v>358562</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>411768</v>
+        <v>413051</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5281521769308369</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4885157072500405</v>
+        <v>0.4910508956941961</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5639160908715638</v>
+        <v>0.5656722841559353</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>734</v>
@@ -7803,19 +7803,19 @@
         <v>764317</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>728358</v>
+        <v>729715</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>798360</v>
+        <v>799819</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5704612531624398</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5436232057733302</v>
+        <v>0.5446355761517349</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5958700473833658</v>
+        <v>0.5969594257628289</v>
       </c>
     </row>
     <row r="26">
@@ -7832,19 +7832,19 @@
         <v>169986</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>147836</v>
+        <v>146947</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>192983</v>
+        <v>192437</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2788358117139391</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2425027196582686</v>
+        <v>0.2410436409501808</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3165584469349112</v>
+        <v>0.3156633389369827</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>239</v>
@@ -7853,19 +7853,19 @@
         <v>253775</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>227985</v>
+        <v>228775</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>279204</v>
+        <v>282292</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3475452570914204</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3122252582634986</v>
+        <v>0.3133069853633429</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3823691910096484</v>
+        <v>0.3865990480991797</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>403</v>
@@ -7874,19 +7874,19 @@
         <v>423762</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>392614</v>
+        <v>388688</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>459192</v>
+        <v>458509</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3162820052142494</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2930346091251101</v>
+        <v>0.2901044980793785</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3427258035397453</v>
+        <v>0.3422162649230395</v>
       </c>
     </row>
     <row r="27">
@@ -7903,19 +7903,19 @@
         <v>37558</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26944</v>
+        <v>25722</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>52375</v>
+        <v>51252</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06160737368380902</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04419719836881196</v>
+        <v>0.04219296187652069</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08591246805192244</v>
+        <v>0.08407060260984263</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>57</v>
@@ -7924,19 +7924,19 @@
         <v>61659</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>47862</v>
+        <v>48229</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>77571</v>
+        <v>78103</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08444163920461849</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06554718420332681</v>
+        <v>0.06604914639096555</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1062329575683316</v>
+        <v>0.106961367422541</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>91</v>
@@ -7945,19 +7945,19 @@
         <v>99216</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>80020</v>
+        <v>79226</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>123162</v>
+        <v>119663</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07405189743788855</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05972450748455885</v>
+        <v>0.05913151038068601</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09192447688765011</v>
+        <v>0.08931270655360024</v>
       </c>
     </row>
     <row r="28">
@@ -8049,19 +8049,19 @@
         <v>29690</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20057</v>
+        <v>20567</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42170</v>
+        <v>41096</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1033963572788278</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06984970016418489</v>
+        <v>0.07162640157322228</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1468602505522296</v>
+        <v>0.1431176313793999</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -8070,19 +8070,19 @@
         <v>31459</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20051</v>
+        <v>21983</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>43965</v>
+        <v>45111</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02979352342902525</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01898934025343878</v>
+        <v>0.02081956842690123</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04163755136874382</v>
+        <v>0.04272357983030929</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>58</v>
@@ -8091,19 +8091,19 @@
         <v>61149</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47307</v>
+        <v>47506</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>76760</v>
+        <v>78395</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04553002031030606</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03522375238335992</v>
+        <v>0.03537180149335481</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05715406743291907</v>
+        <v>0.05837170058503097</v>
       </c>
     </row>
     <row r="30">
@@ -8120,19 +8120,19 @@
         <v>218391</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>202244</v>
+        <v>202011</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>231778</v>
+        <v>232098</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7605602018543653</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7043274358929928</v>
+        <v>0.7035172904691924</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8071809857052928</v>
+        <v>0.8082953565599189</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>546</v>
@@ -8141,19 +8141,19 @@
         <v>590753</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>555602</v>
+        <v>555910</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>623602</v>
+        <v>623435</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5594826334298699</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5261924526104138</v>
+        <v>0.5264840770081668</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5905922524043896</v>
+        <v>0.5904342886114883</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>753</v>
@@ -8162,19 +8162,19 @@
         <v>809144</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>772975</v>
+        <v>771334</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>843844</v>
+        <v>843546</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6024735940070772</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5755425061587582</v>
+        <v>0.5743207261870693</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6283105192476022</v>
+        <v>0.6280881915984836</v>
       </c>
     </row>
     <row r="31">
@@ -8191,19 +8191,19 @@
         <v>31545</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22139</v>
+        <v>21866</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43854</v>
+        <v>42677</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1098574442359938</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07710118631185151</v>
+        <v>0.07614943158798911</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1527236846691146</v>
+        <v>0.1486262456318702</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>306</v>
@@ -8212,19 +8212,19 @@
         <v>335047</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>303482</v>
+        <v>305372</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>366911</v>
+        <v>368166</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3173119045335513</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2874174152532384</v>
+        <v>0.2892076164672146</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3474894784674887</v>
+        <v>0.3486775748230604</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>336</v>
@@ -8233,19 +8233,19 @@
         <v>366592</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>334198</v>
+        <v>332970</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>399592</v>
+        <v>401871</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2729575461926453</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2488373428916612</v>
+        <v>0.2479228962432095</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2975289673352858</v>
+        <v>0.2992258174884433</v>
       </c>
     </row>
     <row r="32">
@@ -8262,19 +8262,19 @@
         <v>7519</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3277</v>
+        <v>3145</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14458</v>
+        <v>15129</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02618599663081306</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01141308855630626</v>
+        <v>0.01095159538570477</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05035187440322033</v>
+        <v>0.05268597407659126</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>88</v>
@@ -8283,19 +8283,19 @@
         <v>98633</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>79222</v>
+        <v>79052</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>120194</v>
+        <v>119971</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09341193860755352</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07502855724605305</v>
+        <v>0.07486740703731905</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1138319778746703</v>
+        <v>0.1136207818023595</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>95</v>
@@ -8304,19 +8304,19 @@
         <v>106152</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>85513</v>
+        <v>88268</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>128009</v>
+        <v>129786</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07903883948997138</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06367173665440713</v>
+        <v>0.06572249450846186</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09531278450749293</v>
+        <v>0.09663649528385859</v>
       </c>
     </row>
     <row r="33">
@@ -8408,19 +8408,19 @@
         <v>142626</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>119204</v>
+        <v>118388</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>168109</v>
+        <v>166664</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04250791519218679</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03552709983528946</v>
+        <v>0.03528397737040129</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05010264279066354</v>
+        <v>0.04967211731757915</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>126</v>
@@ -8429,19 +8429,19 @@
         <v>131989</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>110946</v>
+        <v>111495</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>157403</v>
+        <v>157031</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03786127946895016</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03182497364219306</v>
+        <v>0.03198243253838878</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04515115059574128</v>
+        <v>0.04504444901494934</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>260</v>
@@ -8450,19 +8450,19 @@
         <v>274616</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>243062</v>
+        <v>243456</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>309789</v>
+        <v>309312</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04014016389469849</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03552796178673901</v>
+        <v>0.03558558069470948</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04528143783151115</v>
+        <v>0.04521164879294724</v>
       </c>
     </row>
     <row r="35">
@@ -8479,19 +8479,19 @@
         <v>2120430</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2066505</v>
+        <v>2064699</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2182556</v>
+        <v>2182321</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.631966937056145</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6158951198875903</v>
+        <v>0.6153569788674348</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6504825889007676</v>
+        <v>0.6504126380404712</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1899</v>
@@ -8500,19 +8500,19 @@
         <v>1995632</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1938901</v>
+        <v>1933366</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>2059880</v>
+        <v>2056000</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5724492240766794</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.5561760224941139</v>
+        <v>0.5545883113826219</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5908789626373934</v>
+        <v>0.5897657958740886</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3932</v>
@@ -8521,19 +8521,19 @@
         <v>4116062</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4027998</v>
+        <v>4034188</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4198854</v>
+        <v>4189891</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.6016389426695945</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.5887667469313483</v>
+        <v>0.5896715060452037</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.6137404287618363</v>
+        <v>0.6124303684866832</v>
       </c>
     </row>
     <row r="36">
@@ -8550,19 +8550,19 @@
         <v>881125</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>826958</v>
+        <v>829894</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>929134</v>
+        <v>933921</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2626079398974022</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2464640371580813</v>
+        <v>0.2473390809545551</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2769163277757989</v>
+        <v>0.2783432397222166</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>982</v>
@@ -8571,19 +8571,19 @@
         <v>1052889</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>998403</v>
+        <v>999746</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1114886</v>
+        <v>1105438</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3020223550965133</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2863928935099735</v>
+        <v>0.2867781219481707</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3198062683897701</v>
+        <v>0.3170962175544375</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1815</v>
@@ -8592,19 +8592,19 @@
         <v>1934014</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1852982</v>
+        <v>1864612</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2006178</v>
+        <v>2009835</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2826920476876365</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2708477665876682</v>
+        <v>0.2725476038875588</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2932402304454053</v>
+        <v>0.2937747529724213</v>
       </c>
     </row>
     <row r="37">
@@ -8621,19 +8621,19 @@
         <v>211105</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>185841</v>
+        <v>182661</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>238782</v>
+        <v>242308</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06291720785426592</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05538755698609341</v>
+        <v>0.05443966656022536</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07116594839600078</v>
+        <v>0.07221686895565831</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>278</v>
@@ -8642,19 +8642,19 @@
         <v>305619</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>270020</v>
+        <v>269574</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>341512</v>
+        <v>340182</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0876671413578571</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07745567643182866</v>
+        <v>0.07732774454144183</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09796316924615577</v>
+        <v>0.09758160448715421</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>471</v>
@@ -8663,19 +8663,19 @@
         <v>516724</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>474900</v>
+        <v>472932</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>562849</v>
+        <v>565780</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07552884574807051</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06941541231951386</v>
+        <v>0.06912773339643187</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08227086688219769</v>
+        <v>0.08269928633451903</v>
       </c>
     </row>
     <row r="38">
@@ -9009,19 +9009,19 @@
         <v>22259</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13949</v>
+        <v>14430</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34253</v>
+        <v>33460</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04042525498020574</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02533305338821715</v>
+        <v>0.02620732458235853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06220784823997456</v>
+        <v>0.0607672468579318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -9030,19 +9030,19 @@
         <v>19413</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13331</v>
+        <v>13180</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28219</v>
+        <v>27455</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03974658596386561</v>
+        <v>0.0397465859638656</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02729531945285577</v>
+        <v>0.02698572119831611</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05777667969088787</v>
+        <v>0.05621299853571307</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -9051,19 +9051,19 @@
         <v>41672</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30418</v>
+        <v>29854</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52887</v>
+        <v>54771</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04010623665930089</v>
+        <v>0.04010623665930088</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02927551498502121</v>
+        <v>0.02873229257263595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05090081202023408</v>
+        <v>0.05271378655959541</v>
       </c>
     </row>
     <row r="5">
@@ -9080,19 +9080,19 @@
         <v>333323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308877</v>
+        <v>311516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>357279</v>
+        <v>360113</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6053619644493873</v>
+        <v>0.6053619644493872</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5609640060354741</v>
+        <v>0.565756948883696</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6488689740121386</v>
+        <v>0.6540159965683768</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>429</v>
@@ -9101,19 +9101,19 @@
         <v>312737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295483</v>
+        <v>292732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>330893</v>
+        <v>329323</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6403153194852874</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6049876121315317</v>
+        <v>0.5993567682864254</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.677488464439942</v>
+        <v>0.6742751852330831</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>765</v>
@@ -9122,19 +9122,19 @@
         <v>646060</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>615723</v>
+        <v>615702</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>673717</v>
+        <v>676526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6217923014252476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5925945652955859</v>
+        <v>0.5925745511354654</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.648410039495149</v>
+        <v>0.6511132726926179</v>
       </c>
     </row>
     <row r="6">
@@ -9151,19 +9151,19 @@
         <v>162617</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>141006</v>
+        <v>138584</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>186122</v>
+        <v>183638</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.295334868601441</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2560862968883494</v>
+        <v>0.2516880433009767</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3380236694516428</v>
+        <v>0.333513396520093</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>186</v>
@@ -9172,19 +9172,19 @@
         <v>126266</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>110940</v>
+        <v>110988</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>144083</v>
+        <v>144798</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2585241225857594</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2271439890303574</v>
+        <v>0.2272421933549047</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2950026720614652</v>
+        <v>0.2964673017217565</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>347</v>
@@ -9193,19 +9193,19 @@
         <v>288883</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>264442</v>
+        <v>262599</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>319837</v>
+        <v>319792</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2780314377648515</v>
+        <v>0.2780314377648514</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2545083209659056</v>
+        <v>0.2527350952643936</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.30782254872408</v>
+        <v>0.3077793525807059</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>32419</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22825</v>
+        <v>23178</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44974</v>
+        <v>46158</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05887791196896607</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04145399366438129</v>
+        <v>0.04209467811512209</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08167823908218082</v>
+        <v>0.08382889439248142</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -9243,19 +9243,19 @@
         <v>29995</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21653</v>
+        <v>21610</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41106</v>
+        <v>40311</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06141397196508765</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04433361042847665</v>
+        <v>0.04424458828860199</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08416213903093754</v>
+        <v>0.08253459699899217</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -9264,19 +9264,19 @@
         <v>62414</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49660</v>
+        <v>50393</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77694</v>
+        <v>79603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06007002415060012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04779493620085594</v>
+        <v>0.04849967403984561</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07477551280171313</v>
+        <v>0.07661268303527244</v>
       </c>
     </row>
     <row r="8">
@@ -9368,19 +9368,19 @@
         <v>21552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13465</v>
+        <v>13288</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32025</v>
+        <v>32114</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0446021499843032</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02786657264771954</v>
+        <v>0.0274995669468418</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06627595915420753</v>
+        <v>0.06645969747568868</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -9389,19 +9389,19 @@
         <v>20889</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12965</v>
+        <v>13647</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30271</v>
+        <v>30895</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04936591693236111</v>
+        <v>0.04936591693236109</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0306398189856028</v>
+        <v>0.03225165114402703</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07153847234176137</v>
+        <v>0.07301380228099266</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>44</v>
@@ -9410,19 +9410,19 @@
         <v>42441</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>31662</v>
+        <v>31480</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>57089</v>
+        <v>56311</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0468261725146086</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03493310365358661</v>
+        <v>0.03473300555668946</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06298713061504287</v>
+        <v>0.06212954652639223</v>
       </c>
     </row>
     <row r="10">
@@ -9439,19 +9439,19 @@
         <v>278760</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>256578</v>
+        <v>255121</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>304536</v>
+        <v>300250</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5768894487630232</v>
+        <v>0.5768894487630231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5309846334107045</v>
+        <v>0.5279682985757501</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6302319471246932</v>
+        <v>0.6213637516513737</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>315</v>
@@ -9460,19 +9460,19 @@
         <v>229135</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>213425</v>
+        <v>210158</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>247163</v>
+        <v>246663</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5415069343884884</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5043797825363948</v>
+        <v>0.4966584176731107</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5841119878113523</v>
+        <v>0.5829298716207885</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>588</v>
@@ -9481,19 +9481,19 @@
         <v>507895</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>479916</v>
+        <v>479301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>537306</v>
+        <v>536394</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5603706916521404</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5295006057875373</v>
+        <v>0.528822538293572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5928205480142535</v>
+        <v>0.5918147900477226</v>
       </c>
     </row>
     <row r="11">
@@ -9510,19 +9510,19 @@
         <v>150269</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126719</v>
+        <v>130483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172069</v>
+        <v>172960</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3109791228178133</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2622439846915854</v>
+        <v>0.2700323827461553</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3560935016134128</v>
+        <v>0.3579374103406121</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>208</v>
@@ -9531,19 +9531,19 @@
         <v>146100</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>128137</v>
+        <v>128089</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162176</v>
+        <v>162266</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3452734534975566</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3028221619380981</v>
+        <v>0.3027096821331914</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3832642733216298</v>
+        <v>0.3834771606534696</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>362</v>
@@ -9552,19 +9552,19 @@
         <v>296369</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>269416</v>
+        <v>269409</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>325575</v>
+        <v>326291</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3269898481377384</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2972516404820323</v>
+        <v>0.2972441647135619</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3592133266725537</v>
+        <v>0.3600038574081166</v>
       </c>
     </row>
     <row r="12">
@@ -9581,19 +9581,19 @@
         <v>32631</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22987</v>
+        <v>23000</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45206</v>
+        <v>45551</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06752927843486038</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0475713652118159</v>
+        <v>0.04759876842214858</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09355246225852924</v>
+        <v>0.09426692544439225</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -9602,19 +9602,19 @@
         <v>27019</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20473</v>
+        <v>20088</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36004</v>
+        <v>36624</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.06385369518159384</v>
+        <v>0.06385369518159383</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04838384168098102</v>
+        <v>0.04747389057492446</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08508620275504905</v>
+        <v>0.08655338855024775</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>77</v>
@@ -9623,19 +9623,19 @@
         <v>59650</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47864</v>
+        <v>47719</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72892</v>
+        <v>73305</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06581328769551269</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0528096080317788</v>
+        <v>0.05264952376003427</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08042311803383163</v>
+        <v>0.08087925392747346</v>
       </c>
     </row>
     <row r="13">
@@ -9727,19 +9727,19 @@
         <v>12684</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7609</v>
+        <v>6643</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21593</v>
+        <v>20086</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02695539660088212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01617158409364027</v>
+        <v>0.01411874885602419</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04588977841026509</v>
+        <v>0.04268680408073921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -9748,19 +9748,19 @@
         <v>11380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6894</v>
+        <v>7152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17422</v>
+        <v>17907</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06069369941304519</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03677098983512061</v>
+        <v>0.03814453488602554</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09291668648169958</v>
+        <v>0.09550293301555479</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -9769,19 +9769,19 @@
         <v>24063</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16399</v>
+        <v>16554</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34659</v>
+        <v>33829</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03656858564138083</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02492180036574164</v>
+        <v>0.02515657638876074</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05267102531396562</v>
+        <v>0.05140963361910041</v>
       </c>
     </row>
     <row r="15">
@@ -9798,19 +9798,19 @@
         <v>262229</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>239322</v>
+        <v>239633</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>282224</v>
+        <v>284075</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5572932562909351</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5086121731356388</v>
+        <v>0.5092718706618048</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5997878140774117</v>
+        <v>0.6037204625989215</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>168</v>
@@ -9819,19 +9819,19 @@
         <v>112204</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>100441</v>
+        <v>99321</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>122959</v>
+        <v>122471</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.5984285970578869</v>
+        <v>0.598428597057887</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.535694694714429</v>
+        <v>0.5297201292287876</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6557903306540538</v>
+        <v>0.6531903374638567</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>434</v>
@@ -9840,19 +9840,19 @@
         <v>374432</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>351196</v>
+        <v>350578</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>400837</v>
+        <v>397687</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.5690141128271885</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5337029915672786</v>
+        <v>0.532763667674079</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6091403974841019</v>
+        <v>0.6043538973855228</v>
       </c>
     </row>
     <row r="16">
@@ -9869,19 +9869,19 @@
         <v>157039</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>138798</v>
+        <v>136122</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>178359</v>
+        <v>179165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3337427832068284</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2949758178866531</v>
+        <v>0.2892894143123132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3790527728083389</v>
+        <v>0.3807649397081338</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -9890,19 +9890,19 @@
         <v>50996</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41447</v>
+        <v>41009</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61400</v>
+        <v>61074</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2719848426695368</v>
+        <v>0.2719848426695367</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.221056654518869</v>
+        <v>0.2187167583410567</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3274718696877501</v>
+        <v>0.3257325980768249</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>247</v>
@@ -9911,19 +9911,19 @@
         <v>208036</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>184568</v>
+        <v>185263</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>230934</v>
+        <v>231825</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3161458471533992</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.280483466872322</v>
+        <v>0.2815385875122908</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3509437458948871</v>
+        <v>0.352298165212216</v>
       </c>
     </row>
     <row r="17">
@@ -9940,19 +9940,19 @@
         <v>38588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27151</v>
+        <v>28332</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52010</v>
+        <v>51245</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0820085639013544</v>
+        <v>0.08200856390135441</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05770256741089467</v>
+        <v>0.06021103947966833</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1105325059154706</v>
+        <v>0.1089066287524848</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -9961,19 +9961,19 @@
         <v>12917</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8200</v>
+        <v>8584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19154</v>
+        <v>19489</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06889286085953113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04373142345461187</v>
+        <v>0.04578466418930765</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1021554087552979</v>
+        <v>0.1039428880537951</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -9982,19 +9982,19 @@
         <v>51506</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39707</v>
+        <v>39025</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65612</v>
+        <v>66411</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.07827145437803136</v>
+        <v>0.07827145437803137</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0603419767321195</v>
+        <v>0.0593044700225232</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09970883048053565</v>
+        <v>0.1009236280110362</v>
       </c>
     </row>
     <row r="18">
@@ -10086,19 +10086,19 @@
         <v>51477</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35718</v>
+        <v>36911</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73610</v>
+        <v>72751</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04551835009863809</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03158336094672291</v>
+        <v>0.03263848022962204</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06509003792820219</v>
+        <v>0.06433013490128096</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -10107,19 +10107,19 @@
         <v>54125</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41771</v>
+        <v>42117</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67078</v>
+        <v>68549</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06284697662749066</v>
+        <v>0.06284697662749064</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0485025586110364</v>
+        <v>0.04890421735564361</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07788816115694427</v>
+        <v>0.0795957380308638</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -10128,19 +10128,19 @@
         <v>105601</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83541</v>
+        <v>87384</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>130261</v>
+        <v>129472</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05300969842613498</v>
+        <v>0.053009698426135</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04193582188550394</v>
+        <v>0.04386500763026362</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06538830109502786</v>
+        <v>0.06499210825531537</v>
       </c>
     </row>
     <row r="20">
@@ -10157,19 +10157,19 @@
         <v>598260</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>560775</v>
+        <v>562151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>635291</v>
+        <v>636244</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5290120819076805</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4958661131707448</v>
+        <v>0.497082764057531</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5617569347527873</v>
+        <v>0.5625992258979002</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>631</v>
@@ -10178,19 +10178,19 @@
         <v>455764</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>430279</v>
+        <v>429655</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>482164</v>
+        <v>479910</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.529212523108494</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4996213215991329</v>
+        <v>0.4988965891430105</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5598671635192873</v>
+        <v>0.5572502502253613</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1215</v>
@@ -10199,19 +10199,19 @@
         <v>1054024</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1011333</v>
+        <v>1012292</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1099834</v>
+        <v>1097013</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5290987347564781</v>
+        <v>0.5290987347564782</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5076685121545699</v>
+        <v>0.5081496930472776</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5520944131137251</v>
+        <v>0.5506778572618634</v>
       </c>
     </row>
     <row r="21">
@@ -10228,19 +10228,19 @@
         <v>394016</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>361553</v>
+        <v>359261</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>431890</v>
+        <v>428241</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3484086658639113</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3197038993675196</v>
+        <v>0.3176768826562132</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3818988204732011</v>
+        <v>0.3786721777642211</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>410</v>
@@ -10249,19 +10249,19 @@
         <v>272612</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>249304</v>
+        <v>249523</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>296490</v>
+        <v>294969</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3165444478082204</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2894807659108499</v>
+        <v>0.2897349062908111</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3442713216820362</v>
+        <v>0.3425053877571131</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>813</v>
@@ -10270,19 +10270,19 @@
         <v>666628</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>623712</v>
+        <v>625692</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>706209</v>
+        <v>706484</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.334633427749047</v>
+        <v>0.3346334277490471</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3130908530632273</v>
+        <v>0.3140845843584528</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3545026370923234</v>
+        <v>0.354640557164262</v>
       </c>
     </row>
     <row r="22">
@@ -10299,19 +10299,19 @@
         <v>87148</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70073</v>
+        <v>70312</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106815</v>
+        <v>108681</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07706090212977015</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06196236390400809</v>
+        <v>0.06217302477849381</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09445086276690146</v>
+        <v>0.09610086399215387</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>123</v>
@@ -10320,19 +10320,19 @@
         <v>78711</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65273</v>
+        <v>65606</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>93724</v>
+        <v>94640</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09139605245579499</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07579235322578479</v>
+        <v>0.07617929713051184</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1088285481645684</v>
+        <v>0.1098921343307162</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>213</v>
@@ -10341,19 +10341,19 @@
         <v>165860</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>144654</v>
+        <v>143812</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>190974</v>
+        <v>189414</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08325813906833979</v>
+        <v>0.0832581390683398</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07261334683454104</v>
+        <v>0.07219054284019014</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09586523558071182</v>
+        <v>0.09508179547334444</v>
       </c>
     </row>
     <row r="23">
@@ -10445,19 +10445,19 @@
         <v>44186</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>30154</v>
+        <v>30421</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>63041</v>
+        <v>61210</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07779781757234761</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05309161865511667</v>
+        <v>0.05356119307967062</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1109952825833493</v>
+        <v>0.1077710355593121</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>57</v>
@@ -10466,19 +10466,19 @@
         <v>38722</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29033</v>
+        <v>29554</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49227</v>
+        <v>49958</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04673450957227844</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03503989058442873</v>
+        <v>0.03566896684532089</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05941314448299981</v>
+        <v>0.06029471093816158</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>91</v>
@@ -10487,19 +10487,19 @@
         <v>82909</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>65364</v>
+        <v>65204</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>106114</v>
+        <v>103269</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05936788162963292</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04680483550621854</v>
+        <v>0.046689948309101</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07598432545966012</v>
+        <v>0.07394717971264839</v>
       </c>
     </row>
     <row r="25">
@@ -10516,19 +10516,19 @@
         <v>299340</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>273058</v>
+        <v>272187</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>325597</v>
+        <v>327326</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5270400945215772</v>
+        <v>0.5270400945215771</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4807658875929016</v>
+        <v>0.4792323235622928</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5732702848606849</v>
+        <v>0.576314625832005</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>599</v>
@@ -10537,19 +10537,19 @@
         <v>398767</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>373762</v>
+        <v>373217</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>423079</v>
+        <v>421271</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4812765295665709</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4510972919744929</v>
+        <v>0.4504399503020751</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5106188124599675</v>
+        <v>0.5084365187707369</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>888</v>
@@ -10558,19 +10558,19 @@
         <v>698107</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>662541</v>
+        <v>660817</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>731404</v>
+        <v>732500</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4998884604899038</v>
+        <v>0.4998884604899039</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4744205335093135</v>
+        <v>0.473186239159175</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5237309997261153</v>
+        <v>0.5245155816409109</v>
       </c>
     </row>
     <row r="26">
@@ -10587,19 +10587,19 @@
         <v>184825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>162890</v>
+        <v>161316</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>211130</v>
+        <v>209573</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.325416595734849</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.28679659058825</v>
+        <v>0.2840258763332829</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3717317566627644</v>
+        <v>0.3689894713673034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>510</v>
@@ -10608,19 +10608,19 @@
         <v>314982</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>293395</v>
+        <v>293388</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>340650</v>
+        <v>339285</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3801554259156396</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3541013735991854</v>
+        <v>0.3540931496749297</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4111343275791124</v>
+        <v>0.4094869279616467</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>693</v>
@@ -10629,19 +10629,19 @@
         <v>499807</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>464059</v>
+        <v>464186</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>530045</v>
+        <v>535565</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.35789327638357</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3322953905929025</v>
+        <v>0.332386015409571</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3795451384330397</v>
+        <v>0.3834978997048454</v>
       </c>
     </row>
     <row r="27">
@@ -10658,19 +10658,19 @@
         <v>39613</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>28763</v>
+        <v>28947</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>53130</v>
+        <v>53909</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06974549217122625</v>
+        <v>0.06974549217122623</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05064310080948042</v>
+        <v>0.0509669713995264</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09354435564781262</v>
+        <v>0.094916496011865</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>120</v>
@@ -10679,19 +10679,19 @@
         <v>76090</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>62517</v>
+        <v>61934</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>91090</v>
+        <v>88392</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09183353494551115</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07545256342640518</v>
+        <v>0.07474837097364785</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1099379750761556</v>
+        <v>0.1066807140416285</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>161</v>
@@ -10700,19 +10700,19 @@
         <v>115703</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>98517</v>
+        <v>98734</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>136972</v>
+        <v>136107</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08285038149689325</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07054407312407704</v>
+        <v>0.07069949014263639</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09808082536525878</v>
+        <v>0.09746141602168902</v>
       </c>
     </row>
     <row r="28">
@@ -10804,19 +10804,19 @@
         <v>30589</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17030</v>
+        <v>17413</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>50482</v>
+        <v>51219</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1289435673246468</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07178777041786981</v>
+        <v>0.07340315198729949</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2127993825817524</v>
+        <v>0.2159049042999596</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>57</v>
@@ -10825,19 +10825,19 @@
         <v>68265</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50599</v>
+        <v>50653</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>88930</v>
+        <v>89714</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08118237646003265</v>
+        <v>0.08118237646003267</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06017419986375028</v>
+        <v>0.06023862994301676</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1057584182276329</v>
+        <v>0.1066904241973759</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>70</v>
@@ -10846,19 +10846,19 @@
         <v>98854</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>75965</v>
+        <v>76394</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>124029</v>
+        <v>127847</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09169178621151866</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07046101687513782</v>
+        <v>0.07085950778712831</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.115043470030633</v>
+        <v>0.1185850408956514</v>
       </c>
     </row>
     <row r="30">
@@ -10875,19 +10875,19 @@
         <v>162486</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>137861</v>
+        <v>135727</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>182704</v>
+        <v>183136</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.6849341607278043</v>
+        <v>0.6849341607278044</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5811310266521059</v>
+        <v>0.5721381079939489</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7701636786118302</v>
+        <v>0.7719820852069226</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>657</v>
@@ -10896,19 +10896,19 @@
         <v>498843</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>469554</v>
+        <v>471953</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>525407</v>
+        <v>525974</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5932396563584083</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5584082952992854</v>
+        <v>0.5612613544075059</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6248304271530439</v>
+        <v>0.625503998923319</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>733</v>
@@ -10917,19 +10917,19 @@
         <v>661329</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>624702</v>
+        <v>623241</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>697617</v>
+        <v>693720</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6134161867365769</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5794431624444059</v>
+        <v>0.5780877997529141</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6470756056239616</v>
+        <v>0.6434604643633037</v>
       </c>
     </row>
     <row r="31">
@@ -10946,19 +10946,19 @@
         <v>39004</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21467</v>
+        <v>22845</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>60900</v>
+        <v>62109</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.164416354754331</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09049145992471795</v>
+        <v>0.09629914772102206</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2567147092966671</v>
+        <v>0.2618133963129481</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>351</v>
@@ -10967,19 +10967,19 @@
         <v>216744</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>194762</v>
+        <v>193519</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>238953</v>
+        <v>239471</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2577582403199277</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2316164157355543</v>
+        <v>0.2301387038648197</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2841705209677264</v>
+        <v>0.2847866404300881</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>370</v>
@@ -10988,19 +10988,19 @@
         <v>255748</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>226829</v>
+        <v>226527</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>286685</v>
+        <v>286650</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2372192188963231</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2103957919503553</v>
+        <v>0.2101149949045763</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2659151460265104</v>
+        <v>0.2658822082165374</v>
       </c>
     </row>
     <row r="32">
@@ -11017,19 +11017,19 @@
         <v>5149</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1229</v>
+        <v>1074</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14707</v>
+        <v>15881</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02170591719321767</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005179205302401758</v>
+        <v>0.004526902941961869</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06199672275139269</v>
+        <v>0.06694324098483001</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>89</v>
@@ -11038,19 +11038,19 @@
         <v>57028</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>45525</v>
+        <v>44957</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>71982</v>
+        <v>73108</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.06781972686163158</v>
+        <v>0.06781972686163161</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05414003851302512</v>
+        <v>0.05346418884391055</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0856027846759418</v>
+        <v>0.08694182848821456</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>93</v>
@@ -11059,19 +11059,19 @@
         <v>62178</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>48798</v>
+        <v>49635</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>78985</v>
+        <v>79953</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.05767280815558113</v>
+        <v>0.05767280815558114</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04526261276643961</v>
+        <v>0.04603939066490905</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07326219747755673</v>
+        <v>0.07416040708075117</v>
       </c>
     </row>
     <row r="33">
@@ -11163,19 +11163,19 @@
         <v>182747</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>152601</v>
+        <v>154689</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>218651</v>
+        <v>219140</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.05311693450125587</v>
+        <v>0.05311693450125585</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04435487283340275</v>
+        <v>0.04496158097929139</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06355273562303834</v>
+        <v>0.06369504992021519</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>251</v>
@@ -11184,19 +11184,19 @@
         <v>212793</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>186103</v>
+        <v>186619</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>243930</v>
+        <v>243084</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05862543973032495</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0512722978735154</v>
+        <v>0.051414411137901</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06720376268528899</v>
+        <v>0.06697065789064381</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>392</v>
@@ -11205,19 +11205,19 @@
         <v>395540</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>355980</v>
+        <v>352477</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>442886</v>
+        <v>437778</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.05594490791320559</v>
+        <v>0.0559449079132056</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05034964801162985</v>
+        <v>0.049854157030439</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06264154852165708</v>
+        <v>0.06191903094299174</v>
       </c>
     </row>
     <row r="35">
@@ -11234,19 +11234,19 @@
         <v>1934397</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1866694</v>
+        <v>1870750</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1999724</v>
+        <v>1998970</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5622491763818642</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5425704333320254</v>
+        <v>0.5437494278199502</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5812368986043723</v>
+        <v>0.5810177623888216</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2799</v>
@@ -11255,19 +11255,19 @@
         <v>2007450</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1956523</v>
+        <v>1959366</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>2059088</v>
+        <v>2064039</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.5530616048370957</v>
+        <v>0.5530616048370955</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.5390309598691154</v>
+        <v>0.5398142656796208</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5672881802865236</v>
+        <v>0.5686521498798776</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4623</v>
@@ -11276,19 +11276,19 @@
         <v>3941848</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3852520</v>
+        <v>3865986</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4024152</v>
+        <v>4031149</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5575324325523621</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.5448978806943087</v>
+        <v>0.5468025856823306</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.56917340405035</v>
+        <v>0.5701631697504146</v>
       </c>
     </row>
     <row r="36">
@@ -11305,19 +11305,19 @@
         <v>1087770</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1030376</v>
+        <v>1030632</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1152116</v>
+        <v>1148226</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3161695703243338</v>
+        <v>0.3161695703243337</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2994874627741424</v>
+        <v>0.2995620127973845</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3348723612670771</v>
+        <v>0.3337416342545227</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1747</v>
@@ -11326,19 +11326,19 @@
         <v>1127700</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1078909</v>
+        <v>1077951</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1176334</v>
+        <v>1177003</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3106865058736156</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2972444801781316</v>
+        <v>0.2969803725160086</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3240853850373647</v>
+        <v>0.3242697165407198</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2832</v>
@@ -11347,19 +11347,19 @@
         <v>2215470</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2138193</v>
+        <v>2142981</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2295242</v>
+        <v>2293334</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3133546577776758</v>
+        <v>0.3133546577776757</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3024247003769239</v>
+        <v>0.3031019177781208</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3246375876658579</v>
+        <v>0.3243676711560803</v>
       </c>
     </row>
     <row r="37">
@@ -11376,19 +11376,19 @@
         <v>235549</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>205837</v>
+        <v>206890</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>270041</v>
+        <v>270172</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.06846431879254621</v>
+        <v>0.06846431879254619</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05982825718639104</v>
+        <v>0.06013421445810539</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07848983293053054</v>
+        <v>0.07852794670103121</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>438</v>
@@ -11397,19 +11397,19 @@
         <v>281761</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>255853</v>
+        <v>256476</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>310252</v>
+        <v>309836</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.07762644955896381</v>
+        <v>0.07762644955896379</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0704885359217913</v>
+        <v>0.07066044108633351</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08547579505222871</v>
+        <v>0.08536130475967968</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>686</v>
@@ -11418,19 +11418,19 @@
         <v>517310</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>475012</v>
+        <v>477387</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>559814</v>
+        <v>556027</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0731680017567565</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06718536874761923</v>
+        <v>0.06752123868193829</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07917968561757477</v>
+        <v>0.07864404995271244</v>
       </c>
     </row>
     <row r="38">
